--- a/file/TGE-543-TaitungSouvenirs.xlsx
+++ b/file/TGE-543-TaitungSouvenirs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D2863CC-780B-CB44-B451-579EA469336D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2910BF2-E706-9847-8F97-8B21ACEB3754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19740" yWindow="2660" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="20120" yWindow="11240" windowWidth="28260" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="100">
   <si>
     <t>NO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +115,301 @@
     <t>011</t>
   </si>
   <si>
-    <t>012</t>
-  </si>
-  <si>
-    <t>013</t>
+    <t>台東</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東指名的排隊伴手禮，一片片金黃色的地瓜酥，裹上一層薄薄的獨特糖漿，香脆酥的口感，忍不住一口接一口的好滋味，是老少咸宜的古早味零嘴，至今流傳50個年頭。
+每日限量的地瓜蜜，特選台農57號香甜地瓜，以慢火經6-8小時將麥芽糖細煮入味，綿密Q彈的口感，令人難忘的懷舊古早味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市大同路149-1號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00~18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-322756</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伴手禮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-01.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-02.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-03.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-04.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-05.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-06.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-07.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-08.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-09.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-10.jpg</t>
+  </si>
+  <si>
+    <t>fig/TGE-5403-TaitungSouvenirs-11.jpg</t>
+  </si>
+  <si>
+    <t>https://yangpotato.com.tw/</t>
+  </si>
+  <si>
+    <t>流傳三代的陳家麻糬，堅持每日手工現做，特選用台東池上的圓糯米，以近8小時的手工揉製而成，不添加任何防腐劑，品嚐台東米獨有的香氣與口感，還有在地風味旗魚鬆麻糬，鹹鹹甜甜令人回味無窮。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市大同路213號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~21:00(六、日) ；09:30~21:00(平日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-330125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.chensmochi.com.tw/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+吉祥的封仔餅，皮薄餡多，以油皮與酥皮製成的外衣，層次豐富。鬆軟又層次分明的酥皮，有著淡淡的油香；一口咬下，內餡是甜滋滋的綠豆沙，綿密可口，滿是幸福古早味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市光明路191號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00~22:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Bakery/%E5%90%89%E7%A5%A5%E9%A3%9F%E5%93%81%E8%A1%8C-303893689772700/</t>
+  </si>
+  <si>
+    <t>地瓜酥、地瓜蜜／楊記振發老店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳統麻糬／杉原陳家麻糬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>封仔餅／吉祥食品行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅烏龍茶／東傑茶園</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東特有的在地紅烏龍茶，茶葉外觀為半球型，顏色烏黑亮麗，茶湯水色琥珀橙紅、明亮澄清，滋味甘甜、潤口，相當迷人。製作過程中，利用夏秋茶生產發酵程度較重之烏龍茶，因重發酵，做出來的茶湯紅而有光澤，帶有熟果香，是送給公司前輩、叔伯阿姨、亦或老靈魂朋友們不可或缺的好禮品。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市大同路227號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-346321</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.dongjietea.com/</t>
+  </si>
+  <si>
+    <t>紅藜榖物棒／DJULIS德朱利斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>與契作小農維持穩定的夥伴關係，要求種植過程必須無農藥、親自前往農地檢查排水性避免紅藜受到重金屬汙染，且採收脫粒後也須以空調恆溫儲存，針對調理方式也使用低溫烘焙18小時。
+總統級伴手禮，穀物界紅寶石！選用「台東紅藜」為主要食材，帶有千層酥般的討喜口感、滿滿的紅藜、甜中帶香的滋味，配上熱茶的療癒滋味讓人忍不住一口接一口，大人小孩都愛吃，愈吃愈涮嘴！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市中華路一段92號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~18:00（週一~週六）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-325989</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.djulis-tw.com/product.php?gclid=CjwKCAiA-f78BRBbEiwATKRRBK2DO63l12f4yEd406MuwnGzLqqjDKamLxzB8L3SIqAafmIVWL1dQhoCtgEQAvD_BwE</t>
+  </si>
+  <si>
+    <t>米榖酥／青澤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓巧的米穀酥，讓懷舊的米香搖身一變，成為一口一個恰好大小、不沾手不黏牙的香酥零食，特選用粒粒分明飽滿的台東池上米，融入多種養生穀物，品嚐純淨台東所孕育的在地好滋味。
+改變零食新風味，堅持烘焙口感酥脆不油炸，6種風味多變，是下午茶的最佳良伴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市正氣路206號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:30~21:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-333052</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://chingtse.com/?gclid=CjwKCAiA-f78BRBbEiwATKRRBLhlVbZsDXHV7D5uXxIahnBs7CSPj9DOE6M6xsOQEhHVW0WsIUod0BoCPxcQAvD_BwE</t>
+  </si>
+  <si>
+    <t>旗魚鬆／旗遇海味館</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特選用黑皮旗魚赤身（可當生魚片等級）的整塊純魚肉下鍋炒香，真材實料絕不添加碗豆粉，一入口旗魚香氣直接在口中散開；配上白飯，簡簡單單就是小朋友最愛的美味料理。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-852889</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.meetmarlin.com/?fbclid=IwAR12cMT-hksUkyadI2p64xRAlKwj1tsTI_5vPIQXDE6LqNfoTjg56LyfF3Y</t>
+  </si>
+  <si>
+    <t>台東縣成功鎮港邊路19-8號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10:00 - 20:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旗魚肉紙／鴻鼎記肉紙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">薄如蟬翼的一張旗魚肉紙，經由350度的熱風乾燥，比起傳統肉乾而言，更加清爽酥脆、不油不膩，你可以看見整片肉紙經烘烤後，會因為肉本身的油脂而緊縮成不平整的樣子，這才是真材實料的象徵。 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東市傳廣路156號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>08:00~20:00（週二公休）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-353366</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://hongdingji.livetaitung.tw/</t>
+  </si>
+  <si>
+    <t>柴魚及海味食品／大慶柴魚</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一進店裡，濃濃的柴魚香氣撲鼻而來，無論是現刨的柴魚片或是多樣化的魚鮮加工製品：章魚花、鮪魚糖、魷魚絲、魚酥等都是許多旅人的心頭好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣成功鎮中山路62號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-851133</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://dachin1985.com.tw/</t>
+  </si>
+  <si>
+    <t>據說1950年代，高雄139號為台灣稻作的上乘品種，素有醜美人之稱，體積雖不大卻結實飽滿，深受民眾喜愛。
+南島秧滿田採小農自銷，每筆訂單都是出貨前一天剛碾好的新米，堅持現點現碾的美意，讓住在都市裡的朋友也能品嘗剛碾好的當季新米滋味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣關山鎮和平路58號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>09:00~17:00（週一~週五）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>089-812587</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秧秧好米／南島秧滿田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.krice.com.tw/2019/</t>
+  </si>
+  <si>
+    <t>禾作米／日出禾作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日出禾作為電光部落的在地小農，以無農藥的友善土地方式耕種「台南13號梗稻」，口感香甜彈牙，粒粒分明，最讓人回味的還是它本身所夾帶的芋頭香；日出禾作申請嚴格的慈心綠色保育標章，只為把關有機米的好品質，品嚐令人安心的台東好米。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>台東縣關山鎮電光里中興52號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0934-254225</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.facebook.com/pages/category/Food---Beverage-Company/%E6%97%A5%E5%87%BA%E7%A6%BE%E4%BD%9C-908032775926598/</t>
+  </si>
+  <si>
+    <t>關山鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功鎮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -516,14 +807,16 @@
       <pane xSplit="11" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="3" width="12.5" customWidth="1"/>
-    <col min="4" max="5" width="15.5" customWidth="1"/>
+    <col min="2" max="2" width="25.33203125" customWidth="1"/>
+    <col min="3" max="3" width="7.33203125" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="6" width="56.6640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="19.1640625" style="2" customWidth="1"/>
     <col min="8" max="8" width="17" style="2" customWidth="1"/>
@@ -567,99 +860,390 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" ht="96">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="64">
       <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="64">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="B4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="80">
       <c r="A5" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="J5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="144">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="B6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="112">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="B7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="48">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="B8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="64">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="B9" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="48">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>99</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="J10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="96">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="B11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="80">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
+      <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>96</v>
+      </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
+      <c r="J12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="I13" s="5"/>
       <c r="J13" s="2"/>
     </row>
     <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
     </row>
